--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -223,7 +223,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t xml:space="preserve">creationDate</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">Sopita</t>
@@ -406,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,14 +701,17 @@
       <c r="AN2" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="AT2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AU2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD96B86-FEB8-430A-A9D7-8B69165F14CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F11365-7C01-4D72-BC86-45DD88587616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>creationDate</t>
   </si>
@@ -289,13 +289,16 @@
   </si>
   <si>
     <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>actionType1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,6 +317,12 @@
       <color rgb="FF000000"/>
       <name val="SUKHUMVITSET-TEXT"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,10 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,19 +665,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BS1000"/>
+  <dimension ref="A1:BT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="68" width="11.109375" style="1"/>
-    <col min="72" max="16384" width="11.109375" style="1"/>
+    <col min="1" max="69" width="11.109375" style="1"/>
+    <col min="73" max="16384" width="11.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,92 +798,95 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -949,16 +962,19 @@
       <c r="AN2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F11365-7C01-4D72-BC86-45DD88587616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E2FA3-08B4-4842-A9C2-D06ED5D2F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>actionType1</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4"/>
@@ -799,7 +799,7 @@
         <v>39</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>40</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E2FA3-08B4-4842-A9C2-D06ED5D2F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BDB0E-7CB4-46C4-853F-4D7A54614CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BDB0E-7CB4-46C4-853F-4D7A54614CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621D0746-5114-42B2-A14D-25CFA835E8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>creationDate</t>
   </si>
@@ -668,7 +668,7 @@
   <dimension ref="A1:BT1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4"/>
@@ -889,9 +889,6 @@
     <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>68</v>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621D0746-5114-42B2-A14D-25CFA835E8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F4ADD-3C1B-4A61-BE8D-06075D92732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:BT1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4"/>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F4ADD-3C1B-4A61-BE8D-06075D92732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2CAE38-0716-495C-91D7-4A0491473254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -671,10 +671,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="69" width="11.109375" style="1"/>
-    <col min="73" max="16384" width="11.109375" style="1"/>
+    <col min="1" max="69" width="11.140625" style="1"/>
+    <col min="73" max="16384" width="11.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2CAE38-0716-495C-91D7-4A0491473254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A4A4D-7667-4C8A-AC43-D44B21B7F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A4A4D-7667-4C8A-AC43-D44B21B7F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F56E4D-2B47-486A-8DE6-A10A48618E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D22D22-04E7-4DAA-B079-58E59B53D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86931918-CB1F-4C22-A2FB-0C4498EAA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>creationDate</t>
   </si>
@@ -231,9 +231,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>new_entry</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>Sopita</t>
   </si>
   <si>
@@ -291,7 +285,10 @@
     <t>actionType1</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -368,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,7 +662,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BT1000"/>
+  <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -673,11 +670,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="69" width="11.140625" style="1"/>
-    <col min="73" max="16384" width="11.140625" style="1"/>
+    <col min="1" max="68" width="11.140625" style="1"/>
+    <col min="72" max="16384" width="11.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,209 +685,206 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -903,10 +897,10 @@
         <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>73</v>
@@ -917,20 +911,20 @@
       <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>79</v>
@@ -939,40 +933,37 @@
         <v>80</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86931918-CB1F-4C22-A2FB-0C4498EAA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E25AEB-C5E9-4EE7-B439-CBE550E3085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>creationDate</t>
   </si>
@@ -288,7 +288,13 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>68</v>
@@ -961,6 +967,12 @@
       </c>
       <c r="BC2" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>84</v>

--- a/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.1/Auto_GeStamp_TSCD_TC111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 11.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E25AEB-C5E9-4EE7-B439-CBE550E3085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0453D-0A49-4A2A-882E-BE6040479E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
